--- a/startups.xlsx
+++ b/startups.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:S5588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5588"/>
+      <selection activeCell="A3" sqref="A3:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
